--- a/Design/DataTable/Monster/MonsterClass.xlsx
+++ b/Design/DataTable/Monster/MonsterClass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA23F37-2B99-40A2-A854-F1331A2CD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0145CC9-14FB-4DDD-8BE7-5C98CB5E5B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AD7E77-A881-4070-9F12-9BD43B61D3D1}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -582,13 +582,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -605,13 +605,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>6</v>
